--- a/JumpingDungeon/Designer/FixAndAdjust.xlsx
+++ b/JumpingDungeon/Designer/FixAndAdjust.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A65594B-D81B-459B-AD99-F9C4566F0072}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>只會左右攻擊</t>
   </si>
@@ -45,13 +46,29 @@
   </si>
   <si>
     <t>怪物melee攻擊不會跟隨怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腳色改為使用滑鼠移動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物如果被殺死就不彈開玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物改成產生在徘徊點附近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入衝刺功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -109,15 +126,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -135,6 +146,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -183,7 +197,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,9 +230,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,6 +282,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -426,60 +474,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="64.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -489,7 +554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -502,7 +567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/JumpingDungeon/Designer/FixAndAdjust.xlsx
+++ b/JumpingDungeon/Designer/FixAndAdjust.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A65594B-D81B-459B-AD99-F9C4566F0072}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>只會左右攻擊</t>
   </si>
@@ -45,30 +44,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>腳色改為使用滑鼠移動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物如果被殺死就不彈開玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物改成產生在徘徊點附近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入衝刺功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>怪物melee攻擊不會跟隨怪物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腳色改為使用滑鼠移動</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物如果被殺死就不彈開玩家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物改成產生在徘徊點附近</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加入衝刺功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -197,7 +196,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,26 +229,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -282,23 +264,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -474,11 +439,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -499,28 +464,31 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -528,7 +496,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -538,12 +509,12 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -554,7 +525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -567,7 +538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/JumpingDungeon/Designer/FixAndAdjust.xlsx
+++ b/JumpingDungeon/Designer/FixAndAdjust.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE9F396-45F7-431D-AA09-3424C35300DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>只會左右攻擊</t>
   </si>
@@ -61,13 +62,25 @@
   </si>
   <si>
     <t>怪物melee攻擊不會跟隨怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物增加衝刺攻擊功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物增加護盾功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物增加寶相怪功能，打死直接獲得道具效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -196,7 +209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -229,9 +242,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,6 +294,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -439,11 +486,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -478,17 +525,23 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -496,25 +549,37 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -525,7 +590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -538,7 +603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/JumpingDungeon/Designer/FixAndAdjust.xlsx
+++ b/JumpingDungeon/Designer/FixAndAdjust.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE9F396-45F7-431D-AA09-3424C35300DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>只會左右攻擊</t>
   </si>
@@ -61,26 +60,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>怪物增加衝刺攻擊功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物增加寶相怪功能，打死直接獲得道具效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物增加護盾功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>怪物melee攻擊不會跟隨怪物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物增加衝刺攻擊功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物增加護盾功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物增加寶相怪功能，打死直接獲得道具效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -209,7 +208,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -242,26 +241,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,23 +276,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -486,11 +451,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -549,32 +514,35 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -590,7 +558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -603,7 +571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/JumpingDungeon/Designer/FixAndAdjust.xlsx
+++ b/JumpingDungeon/Designer/FixAndAdjust.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>只會左右攻擊</t>
   </si>
@@ -455,7 +455,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -523,6 +523,9 @@
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">

--- a/JumpingDungeon/Designer/FixAndAdjust.xlsx
+++ b/JumpingDungeon/Designer/FixAndAdjust.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>只會左右攻擊</t>
   </si>
@@ -60,19 +60,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>怪物增加寶相怪功能，打死直接獲得道具效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物melee攻擊不會跟隨怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>怪物增加衝刺攻擊功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>怪物增加寶相怪功能，打死直接獲得道具效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>怪物增加護盾功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物melee攻擊不會跟隨怪物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,7 +455,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -514,7 +514,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -530,12 +530,18 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -545,7 +551,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">

--- a/JumpingDungeon/Designer/FixAndAdjust.xlsx
+++ b/JumpingDungeon/Designer/FixAndAdjust.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>只會左右攻擊</t>
   </si>
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -547,6 +547,9 @@
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">

--- a/JumpingDungeon/Designer/FixAndAdjust.xlsx
+++ b/JumpingDungeon/Designer/FixAndAdjust.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>只會左右攻擊</t>
   </si>
@@ -73,6 +73,14 @@
   </si>
   <si>
     <t>怪物增加護盾功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物變身+史萊姆移動</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格檔次數狀態</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -560,6 +568,19 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/JumpingDungeon/Designer/FixAndAdjust.xlsx
+++ b/JumpingDungeon/Designer/FixAndAdjust.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>只會左右攻擊</t>
   </si>
@@ -463,7 +463,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -564,6 +564,9 @@
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -573,6 +576,9 @@
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">

--- a/JumpingDungeon/Designer/FixAndAdjust.xlsx
+++ b/JumpingDungeon/Designer/FixAndAdjust.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00042BE-375E-4FBA-AA85-4C78F5C76A80}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>只會左右攻擊</t>
   </si>
@@ -81,13 +82,31 @@
   </si>
   <si>
     <t>格檔次數狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血條替換正式圖</t>
+  </si>
+  <si>
+    <t>鍵盤操作加入衝刺功能</t>
+  </si>
+  <si>
+    <t>第一關最開始擋住不能往回走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可一擊擊殺的怪不顯示血條</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>場上怪物數量上限設定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -216,7 +235,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,9 +268,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,6 +320,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -459,11 +512,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -589,6 +642,31 @@
         <v>6</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -597,7 +675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -610,7 +688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/JumpingDungeon/Designer/FixAndAdjust.xlsx
+++ b/JumpingDungeon/Designer/FixAndAdjust.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00042BE-375E-4FBA-AA85-4C78F5C76A80}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>只會左右攻擊</t>
   </si>
@@ -91,22 +90,22 @@
     <t>鍵盤操作加入衝刺功能</t>
   </si>
   <si>
+    <t>場上怪物數量上限設定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>第一關最開始擋住不能往回走</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>可一擊擊殺的怪不顯示血條</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>場上怪物數量上限設定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -235,7 +234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,26 +267,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -320,23 +302,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -512,11 +477,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -644,25 +609,28 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -675,7 +643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -688,7 +656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/JumpingDungeon/Designer/FixAndAdjust.xlsx
+++ b/JumpingDungeon/Designer/FixAndAdjust.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>只會左右攻擊</t>
   </si>
@@ -481,7 +481,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -611,6 +611,9 @@
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
@@ -624,15 +627,24 @@
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/JumpingDungeon/Designer/FixAndAdjust.xlsx
+++ b/JumpingDungeon/Designer/FixAndAdjust.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="14805" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 

--- a/JumpingDungeon/Designer/FixAndAdjust.xlsx
+++ b/JumpingDungeon/Designer/FixAndAdjust.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>只會左右攻擊</t>
   </si>
@@ -480,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -589,6 +589,9 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
